--- a/CostofDelayPrioritizationCalculator.xlsx
+++ b/CostofDelayPrioritizationCalculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\photo\Desktop\SEIS 664\CostDelayPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\photo\Repos\SEIS664-Team3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621F56D2-7543-4BAC-9DFE-072819115045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B7B0CB-6122-4A12-A6B3-AD479E02002C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost of Delay" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,52 @@
     <sheet name="Example" sheetId="4" r:id="rId4"/>
     <sheet name="Calculations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>photo</author>
+  </authors>
+  <commentList>
+    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>photo:
+photo:
+If we allow that the shorter iteration's work would continue to earn revenue (based off the last completed day) while in the parallel universe the WSJF iteration continues, we can include this value in the shorter iteration's revenue.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>Cost of Delay Proritization Calculator</t>
   </si>
@@ -122,6 +162,9 @@
     <t>WSJF Strict</t>
   </si>
   <si>
+    <t>Time Efficient</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -158,6 +201,12 @@
     <t>Sprint 4</t>
   </si>
   <si>
+    <t>Iteration Makeup</t>
+  </si>
+  <si>
+    <t>Iteration Equivalent Revenue</t>
+  </si>
+  <si>
     <t>Sprint 5</t>
   </si>
   <si>
@@ -171,9 +220,6 @@
   </si>
   <si>
     <t>Sprint 9</t>
-  </si>
-  <si>
-    <t>Time Efficient</t>
   </si>
 </sst>
 </file>
@@ -251,7 +297,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +324,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
     <fill>
@@ -404,16 +455,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,15 +474,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,6 +504,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cost of Delay"/>
+      <sheetName val="WSJF Prioritization (simple)"/>
+      <sheetName val="Setup"/>
+      <sheetName val="Example"/>
+      <sheetName val="Cost of Delay Prioritization Ca"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,12 +842,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -792,7 +864,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="3" spans="1:13" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:13" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:M2"/>
@@ -806,19 +878,19 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -835,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -846,13 +918,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="9">
+        <f>IFERROR(VLOOKUP(C2,Table2[#Data],2,FALSE),0) * IFERROR((1/B2),0)</f>
         <v>500</v>
       </c>
       <c r="F2" s="8">
+        <f t="shared" ref="F2:F25" si="0">IF(D2&gt;0, _xlfn.RANK.EQ(D2,D$2:D$25),"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>16</v>
       </c>
@@ -863,13 +937,15 @@
         <v>6</v>
       </c>
       <c r="D3" s="9">
+        <f>IFERROR(VLOOKUP(C3,Table2[#Data],2,FALSE),0) * IFERROR((1/B3),0)</f>
         <v>200</v>
       </c>
       <c r="F3" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -880,13 +956,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="9">
+        <f>IFERROR(VLOOKUP(C4,Table2[#Data],2,FALSE),0) * IFERROR((1/B4),0)</f>
         <v>100</v>
       </c>
       <c r="F4" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -897,13 +975,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="9">
+        <f>IFERROR(VLOOKUP(C5,Table2[#Data],2,FALSE),0) * IFERROR((1/B5),0)</f>
         <v>100</v>
       </c>
       <c r="F5" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -914,13 +994,15 @@
         <v>7</v>
       </c>
       <c r="D6" s="9">
+        <f>IFERROR(VLOOKUP(C6,Table2[#Data],2,FALSE),0) * IFERROR((1/B6),0)</f>
         <v>40</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -931,13 +1013,15 @@
         <v>7</v>
       </c>
       <c r="D7" s="9">
+        <f>IFERROR(VLOOKUP(C7,Table2[#Data],2,FALSE),0) * IFERROR((1/B7),0)</f>
         <v>40</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -948,13 +1032,15 @@
         <v>6</v>
       </c>
       <c r="D8" s="9">
+        <f>IFERROR(VLOOKUP(C8,Table2[#Data],2,FALSE),0) * IFERROR((1/B8),0)</f>
         <v>28.571428571428569</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -965,13 +1051,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="9">
+        <f>IFERROR(VLOOKUP(C9,Table2[#Data],2,FALSE),0) * IFERROR((1/B9),0)</f>
         <v>25</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -982,13 +1070,15 @@
         <v>8</v>
       </c>
       <c r="D10" s="9">
+        <f>IFERROR(VLOOKUP(C10,Table2[#Data],2,FALSE),0) * IFERROR((1/B10),0)</f>
         <v>25</v>
       </c>
       <c r="F10" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>17</v>
       </c>
@@ -999,30 +1089,34 @@
         <v>7</v>
       </c>
       <c r="D11" s="9">
+        <f>IFERROR(VLOOKUP(C11,Table2[#Data],2,FALSE),0) * IFERROR((1/B11),0)</f>
         <v>20</v>
       </c>
       <c r="F11" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="9">
-        <v>8</v>
+        <f>IFERROR(VLOOKUP(C12,Table2[#Data],2,FALSE),0) * IFERROR((1/B12),0)</f>
+        <v>10</v>
       </c>
       <c r="F12" s="8">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>20</v>
       </c>
@@ -1033,13 +1127,15 @@
         <v>7</v>
       </c>
       <c r="D13" s="9">
+        <f>IFERROR(VLOOKUP(C13,Table2[#Data],2,FALSE),0) * IFERROR((1/B13),0)</f>
         <v>5.7142857142857144</v>
       </c>
       <c r="F13" s="8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>18</v>
       </c>
@@ -1050,13 +1146,15 @@
         <v>9</v>
       </c>
       <c r="D14" s="9">
+        <f>IFERROR(VLOOKUP(C14,Table2[#Data],2,FALSE),0) * IFERROR((1/B14),0)</f>
         <v>5</v>
       </c>
       <c r="F14" s="8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1067,30 +1165,34 @@
         <v>9</v>
       </c>
       <c r="D15" s="9">
+        <f>IFERROR(VLOOKUP(C15,Table2[#Data],2,FALSE),0) * IFERROR((1/B15),0)</f>
         <v>2</v>
       </c>
       <c r="F15" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="9">
-        <v>2</v>
+        <f>IFERROR(VLOOKUP(C16,Table2[#Data],2,FALSE),0) * IFERROR((1/B16),0)</f>
+        <v>2.5</v>
       </c>
       <c r="F16" s="8">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -1101,13 +1203,15 @@
         <v>8</v>
       </c>
       <c r="D17" s="9">
-        <v>1.428571428571429</v>
+        <f>IFERROR(VLOOKUP(C17,Table2[#Data],2,FALSE),0) * IFERROR((1/B17),0)</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="F17" s="8">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1118,13 +1222,15 @@
         <v>8</v>
       </c>
       <c r="D18" s="9">
-        <v>1.428571428571429</v>
+        <f>IFERROR(VLOOKUP(C18,Table2[#Data],2,FALSE),0) * IFERROR((1/B18),0)</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="F18" s="8">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -1135,81 +1241,103 @@
         <v>9</v>
       </c>
       <c r="D19" s="9">
+        <f>IFERROR(VLOOKUP(C19,Table2[#Data],2,FALSE),0) * IFERROR((1/B19),0)</f>
         <v>1</v>
       </c>
       <c r="F19" s="8">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="9">
-        <v>0.4</v>
+        <f>IFERROR(VLOOKUP(C20,Table2[#Data],2,FALSE),0) * IFERROR((1/B20),0)</f>
+        <v>0.5</v>
       </c>
       <c r="F20" s="8">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="9">
-        <v>0.4</v>
+        <f>IFERROR(VLOOKUP(C21,Table2[#Data],2,FALSE),0) * IFERROR((1/B21),0)</f>
+        <v>0.5</v>
       </c>
       <c r="F21" s="8">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9">
+        <f>IFERROR(VLOOKUP(C22,[1]!Table2[#Data],2,FALSE),0) * IFERROR((1/B22),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9">
+        <f>IFERROR(VLOOKUP(C23,[1]!Table2[#Data],2,FALSE),0) * IFERROR((1/B23),0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9">
+        <f>IFERROR(VLOOKUP(C24,[1]!Table2[#Data],2,FALSE),0) * IFERROR((1/B24),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9">
+        <f>IFERROR(VLOOKUP(C25,[1]!Table2[#Data],2,FALSE),0) * IFERROR((1/B25),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,20 +1350,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.86328125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1243,7 +1371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +1411,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1291,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1443,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1340,16 +1468,16 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" style="13" customWidth="1"/>
-    <col min="6" max="20" width="4.73046875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="14" customWidth="1"/>
+    <col min="6" max="20" width="4.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F3" s="23" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1496,7 @@
       <c r="S3" s="24"/>
       <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>19</v>
@@ -1423,7 +1551,7 @@
       </c>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1535,7 +1663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1596,42 +1724,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="29"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1646,35 +1773,37 @@
       <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
-      <c r="O2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-    </row>
-    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="O2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="9">
+        <f>IFERROR(VLOOKUP(C3,Table2[#Data],2,FALSE),0) * IFERROR((1/B3),0)</f>
         <v>500</v>
       </c>
       <c r="E3" s="8">
+        <f t="shared" ref="E3:E22" si="0">IF(D3&gt;0, _xlfn.RANK.EQ(D3,D$2:D$25),"")</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -1683,35 +1812,37 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>32</v>
+      <c r="I3" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="O3" s="26" t="s">
-        <v>32</v>
+      <c r="O3" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="27"/>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="9">
+        <f>IFERROR(VLOOKUP(C4,Table2[#Data],2,FALSE),0) * IFERROR((1/B4),0)</f>
         <v>200</v>
       </c>
       <c r="E4" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4">
@@ -1751,20 +1882,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9">
+        <f>IFERROR(VLOOKUP(C5,Table2[#Data],2,FALSE),0) * IFERROR((1/B5),0)</f>
         <v>100</v>
       </c>
       <c r="E5" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5">
@@ -1804,20 +1937,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9">
+        <f>IFERROR(VLOOKUP(C6,Table2[#Data],2,FALSE),0) * IFERROR((1/B6),0)</f>
         <v>100</v>
       </c>
       <c r="E6" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F6">
@@ -1857,20 +1992,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="9">
+        <f>IFERROR(VLOOKUP(C7,Table2[#Data],2,FALSE),0) * IFERROR((1/B7),0)</f>
         <v>40</v>
       </c>
       <c r="E7" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F7">
@@ -1895,35 +2032,37 @@
         <v>2000</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9">
+        <f>IFERROR(VLOOKUP(C8,Table2[#Data],2,FALSE),0) * IFERROR((1/B8),0)</f>
         <v>40</v>
       </c>
       <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F8">
@@ -1963,20 +2102,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>35</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="9">
+        <f>IFERROR(VLOOKUP(C9,Table2[#Data],2,FALSE),0) * IFERROR((1/B9),0)</f>
         <v>28.571428571428569</v>
       </c>
       <c r="E9" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F9">
@@ -2001,35 +2142,37 @@
         <v>2000</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9">
+        <f>IFERROR(VLOOKUP(C10,Table2[#Data],2,FALSE),0) * IFERROR((1/B10),0)</f>
         <v>25</v>
       </c>
       <c r="E10" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -2069,20 +2212,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="9">
+        <f>IFERROR(VLOOKUP(C11,Table2[#Data],2,FALSE),0) * IFERROR((1/B11),0)</f>
         <v>25</v>
       </c>
       <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F11">
@@ -2107,35 +2252,37 @@
         <v>3000</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="9">
+        <f>IFERROR(VLOOKUP(C12,Table2[#Data],2,FALSE),0) * IFERROR((1/B12),0)</f>
         <v>20</v>
       </c>
       <c r="E12" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F12">
@@ -2175,20 +2322,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
-      </c>
-      <c r="C13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="9">
-        <v>8</v>
+        <f>IFERROR(VLOOKUP(C13,Table2[#Data],2,FALSE),0) * IFERROR((1/B13),0)</f>
+        <v>10</v>
       </c>
       <c r="E13" s="8">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F13">
@@ -2213,35 +2362,37 @@
         <v>3000</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>35</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="9">
+        <f>IFERROR(VLOOKUP(C14,Table2[#Data],2,FALSE),0) * IFERROR((1/B14),0)</f>
         <v>5.7142857142857144</v>
       </c>
       <c r="E14" s="8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F14">
@@ -2281,20 +2432,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="9">
+        <f>IFERROR(VLOOKUP(C15,Table2[#Data],2,FALSE),0) * IFERROR((1/B15),0)</f>
         <v>5</v>
       </c>
       <c r="E15" s="8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F15">
@@ -2319,35 +2472,37 @@
         <v>4000</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="9">
-        <v>2</v>
+        <f>IFERROR(VLOOKUP(C16,Table2[#Data],2,FALSE),0) * IFERROR((1/B16),0)</f>
+        <v>2.5</v>
       </c>
       <c r="E16" s="8">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F16">
@@ -2387,21 +2542,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="9">
+        <f>IFERROR(VLOOKUP(C17,Table2[#Data],2,FALSE),0) * IFERROR((1/B17),0)</f>
         <v>2</v>
       </c>
       <c r="E17" s="8">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2425,35 +2582,37 @@
         <v>4200</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>10</v>
       </c>
       <c r="B18" s="2">
         <v>35</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="9">
-        <v>1.428571428571429</v>
+        <f>IFERROR(VLOOKUP(C18,Table2[#Data],2,FALSE),0) * IFERROR((1/B18),0)</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E18" s="8">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F18">
@@ -2493,20 +2652,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>35</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="9">
-        <v>1.428571428571429</v>
+        <f>IFERROR(VLOOKUP(C19,Table2[#Data],2,FALSE),0) * IFERROR((1/B19),0)</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E19" s="8">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F19">
@@ -2531,35 +2692,37 @@
         <v>4400</v>
       </c>
       <c r="O19">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="P19">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="Q19">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="R19">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="S19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>12</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="9">
+        <f>IFERROR(VLOOKUP(C20,Table2[#Data],2,FALSE),0) * IFERROR((1/B20),0)</f>
         <v>1</v>
       </c>
       <c r="E20" s="8">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F20">
@@ -2569,20 +2732,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>25</v>
-      </c>
-      <c r="C21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="9">
-        <v>0.4</v>
+        <f>IFERROR(VLOOKUP(C21,Table2[#Data],2,FALSE),0) * IFERROR((1/B21),0)</f>
+        <v>0.5</v>
       </c>
       <c r="E21" s="8">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F21">
@@ -2592,20 +2757,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>25</v>
-      </c>
-      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="9">
-        <v>0.4</v>
+        <f>IFERROR(VLOOKUP(C22,Table2[#Data],2,FALSE),0) * IFERROR((1/B22),0)</f>
+        <v>0.5</v>
       </c>
       <c r="E22" s="8">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F22">
@@ -2614,22 +2781,22 @@
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>33</v>
+      <c r="I22" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
-      <c r="O22" s="26" t="s">
-        <v>33</v>
+      <c r="O22" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I23" s="20">
         <v>41</v>
       </c>
@@ -2661,12 +2828,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="30" t="s">
-        <v>34</v>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="27"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="27"/>
       <c r="I24">
         <v>4400</v>
@@ -2684,30 +2851,30 @@
         <v>4400</v>
       </c>
       <c r="O24">
-        <v>1010</v>
+        <v>3410</v>
       </c>
       <c r="P24">
-        <v>1010</v>
+        <v>3410</v>
       </c>
       <c r="Q24">
-        <v>1010</v>
+        <v>3410</v>
       </c>
       <c r="R24">
-        <v>1010</v>
+        <v>3410</v>
       </c>
       <c r="S24">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="I25" s="20">
         <v>46</v>
@@ -2740,14 +2907,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
+        <f t="shared" ref="B26:B34" si="1">SUMIF(F$3:F$22, A26, B$3:B$22)</f>
         <v>37</v>
       </c>
       <c r="C26" s="12">
+        <f t="shared" ref="C26:C34" si="2">40-B26</f>
         <v>3</v>
       </c>
       <c r="I26">
@@ -2766,29 +2935,31 @@
         <v>4400</v>
       </c>
       <c r="O26">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="P26">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="Q26">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="R26">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="S26">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C27" s="12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I27" s="20">
@@ -2822,15 +2993,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="C28" s="12">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>4400</v>
@@ -2848,29 +3021,31 @@
         <v>4400</v>
       </c>
       <c r="O28">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="P28">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="Q28">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="R28">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="S28">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C29" s="12">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I29" s="20">
@@ -2904,15 +3079,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="C30" s="12">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>4400</v>
@@ -2930,29 +3107,31 @@
         <v>4400</v>
       </c>
       <c r="O30">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="P30">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="Q30">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="R30">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="S30">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C31" s="12">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I31" s="20">
@@ -2986,14 +3165,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
       <c r="B32">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C32" s="12">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I32">
@@ -3012,30 +3193,32 @@
         <v>4400</v>
       </c>
       <c r="O32">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="P32">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="Q32">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="R32">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="S32">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="C33" s="12">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I33" s="20">
         <v>66</v>
@@ -3068,15 +3251,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="C34" s="12">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="I34">
         <v>4400</v>
@@ -3094,22 +3279,22 @@
         <v>4400</v>
       </c>
       <c r="O34">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="P34">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="Q34">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="R34">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="S34">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I35" s="20">
         <v>71</v>
       </c>
@@ -3141,24 +3326,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I36">
         <v>4400</v>
@@ -3176,39 +3361,42 @@
         <v>4400</v>
       </c>
       <c r="O36">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="P36">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="Q36">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="R36">
-        <v>1210</v>
+        <v>3410</v>
       </c>
       <c r="S36">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
+        <f>MAX(A26:A34)</f>
         <v>9</v>
       </c>
       <c r="B37" s="11">
-        <v>308</v>
+        <f>SUM(B26:B34)</f>
+        <v>288</v>
       </c>
       <c r="C37" s="11">
-        <v>52</v>
+        <f>SUM(C26:C34)</f>
+        <v>72</v>
       </c>
       <c r="D37" s="17">
         <v>180000</v>
       </c>
       <c r="E37" s="18">
-        <v>42158930</v>
+        <v>38907480</v>
       </c>
       <c r="F37" s="18">
-        <v>41978930</v>
+        <v>38727480</v>
       </c>
       <c r="I37" s="20">
         <v>76</v>
@@ -3241,7 +3429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F38" s="19"/>
       <c r="I38">
         <v>5400</v>
@@ -3259,39 +3447,39 @@
         <v>5500</v>
       </c>
       <c r="O38">
-        <v>1210</v>
+        <v>4410</v>
       </c>
       <c r="P38">
-        <v>1210</v>
+        <v>4410</v>
       </c>
       <c r="Q38">
-        <v>1210</v>
+        <v>4460</v>
       </c>
       <c r="R38">
-        <v>1210</v>
+        <v>4460</v>
       </c>
       <c r="S38">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="28" t="s">
-        <v>41</v>
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="27"/>
-      <c r="C40" s="29"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
     </row>
-    <row r="41" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -3306,36 +3494,38 @@
       <c r="G41" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>42</v>
+      <c r="I41" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
-      <c r="O41" s="26" t="s">
-        <v>42</v>
+      <c r="O41" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
     </row>
-    <row r="42" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
         <v>5</v>
       </c>
-      <c r="B42" s="2">
-        <v>35</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="9">
-        <v>28.571428571428569</v>
+        <f>IFERROR(VLOOKUP(C42,Table2[#Data],2,FALSE),0) * IFERROR((1/B42),0)</f>
+        <v>200</v>
       </c>
       <c r="E42" s="8">
-        <v>7</v>
+        <f t="shared" ref="E42:E61" si="3">IF(D42&gt;0, _xlfn.RANK.EQ(D42,D$2:D$25),"")</f>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3374,21 +3564,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="2">
-        <v>5</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="D43" s="9">
-        <v>2</v>
+        <f>IFERROR(VLOOKUP(C43,Table2[#Data],2,FALSE),0) * IFERROR((1/B43),0)</f>
+        <v>100</v>
       </c>
       <c r="E43" s="8">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3412,39 +3604,41 @@
         <v>9900</v>
       </c>
       <c r="O43">
-        <v>2270</v>
+        <v>7920</v>
       </c>
       <c r="P43">
-        <v>2270</v>
+        <v>7920</v>
       </c>
       <c r="Q43">
-        <v>2270</v>
+        <v>7920</v>
       </c>
       <c r="R43">
-        <v>2270</v>
+        <v>7920</v>
       </c>
       <c r="S43">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
-        <v>5</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D44" s="9">
-        <v>40</v>
+        <f>IFERROR(VLOOKUP(C44,Table2[#Data],2,FALSE),0) * IFERROR((1/B44),0)</f>
+        <v>100</v>
       </c>
       <c r="E44" s="8">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3480,24 +3674,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>35</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D45" s="9">
-        <v>1.428571428571429</v>
+        <f>IFERROR(VLOOKUP(C45,Table2[#Data],2,FALSE),0) * IFERROR((1/B45),0)</f>
+        <v>40</v>
       </c>
       <c r="E45" s="8">
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -3518,39 +3714,41 @@
         <v>9900</v>
       </c>
       <c r="O45">
-        <v>2470</v>
+        <v>7920</v>
       </c>
       <c r="P45">
-        <v>2470</v>
+        <v>7920</v>
       </c>
       <c r="Q45">
-        <v>2470</v>
+        <v>7920</v>
       </c>
       <c r="R45">
-        <v>2470</v>
+        <v>7920</v>
       </c>
       <c r="S45">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2">
         <v>5</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="9">
+        <f>IFERROR(VLOOKUP(C46,Table2[#Data],2,FALSE),0) * IFERROR((1/B46),0)</f>
         <v>40</v>
       </c>
       <c r="E46" s="8">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -3586,24 +3784,26 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="9">
+        <f>IFERROR(VLOOKUP(C47,Table2[#Data],2,FALSE),0) * IFERROR((1/B47),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B47" s="2">
-        <v>35</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="9">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="E47" s="8">
-        <v>16</v>
-      </c>
       <c r="F47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -3624,39 +3824,41 @@
         <v>10100</v>
       </c>
       <c r="O47">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="P47">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="Q47">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="R47">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="S47">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>5</v>
-      </c>
-      <c r="C48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="9">
-        <v>200</v>
+        <f>IFERROR(VLOOKUP(C48,Table2[#Data],2,FALSE),0) * IFERROR((1/B48),0)</f>
+        <v>28.571428571428569</v>
       </c>
       <c r="E48" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F48">
         <v>2</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -3692,24 +3894,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2">
-        <v>35</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D49" s="9">
-        <v>5.7142857142857144</v>
+        <f>IFERROR(VLOOKUP(C49,Table2[#Data],2,FALSE),0) * IFERROR((1/B49),0)</f>
+        <v>25</v>
       </c>
       <c r="E49" s="8">
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -3730,39 +3934,41 @@
         <v>10100</v>
       </c>
       <c r="O49">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="P49">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="Q49">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="R49">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="S49">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="9">
+        <f>IFERROR(VLOOKUP(C50,Table2[#Data],2,FALSE),0) * IFERROR((1/B50),0)</f>
         <v>25</v>
       </c>
       <c r="E50" s="8">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>9</v>
@@ -3798,24 +4004,26 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D51" s="9">
-        <v>25</v>
+        <f>IFERROR(VLOOKUP(C51,Table2[#Data],2,FALSE),0) * IFERROR((1/B51),0)</f>
+        <v>20</v>
       </c>
       <c r="E51" s="8">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G51">
         <v>10</v>
@@ -3836,39 +4044,41 @@
         <v>10100</v>
       </c>
       <c r="O51">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="P51">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="Q51">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="R51">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="S51">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="9">
+        <f>IFERROR(VLOOKUP(C52,Table2[#Data],2,FALSE),0) * IFERROR((1/B52),0)</f>
         <v>10</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="9">
-        <v>20</v>
-      </c>
       <c r="E52" s="8">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>11</v>
@@ -3904,24 +4114,26 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" s="2">
-        <v>25</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D53" s="9">
-        <v>2</v>
+        <f>IFERROR(VLOOKUP(C53,Table2[#Data],2,FALSE),0) * IFERROR((1/B53),0)</f>
+        <v>1</v>
       </c>
       <c r="E53" s="8">
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>12</v>
@@ -3942,39 +4154,41 @@
         <v>10100</v>
       </c>
       <c r="O53">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="P53">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="Q53">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="R53">
-        <v>2470</v>
+        <v>8120</v>
       </c>
       <c r="S53">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D54" s="9">
-        <v>500</v>
+        <f>IFERROR(VLOOKUP(C54,Table2[#Data],2,FALSE),0) * IFERROR((1/B54),0)</f>
+        <v>5.7142857142857144</v>
       </c>
       <c r="E54" s="8">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>13</v>
@@ -4010,77 +4224,81 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>18</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="9">
+        <f>IFERROR(VLOOKUP(C55,Table2[#Data],2,FALSE),0) * IFERROR((1/B55),0)</f>
         <v>5</v>
       </c>
       <c r="E55" s="8">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <v>14</v>
       </c>
       <c r="I55">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="J55">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="K55">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="L55">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="M55">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="O55">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="P55">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="Q55">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="R55">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="S55">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2">
-        <v>10</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D56" s="9">
+        <f>IFERROR(VLOOKUP(C56,Table2[#Data],2,FALSE),0) * IFERROR((1/B56),0)</f>
+        <v>500</v>
+      </c>
+      <c r="E56" s="8">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E56" s="8">
-        <v>18</v>
-      </c>
       <c r="F56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>15</v>
@@ -4116,24 +4334,26 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2">
-        <v>25</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D57" s="9">
-        <v>0.4</v>
+        <f>IFERROR(VLOOKUP(C57,Table2[#Data],2,FALSE),0) * IFERROR((1/B57),0)</f>
+        <v>2.5</v>
       </c>
       <c r="E57" s="8">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <v>16</v>
@@ -4154,119 +4374,127 @@
         <v>10300</v>
       </c>
       <c r="O57">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="P57">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="Q57">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="R57">
-        <v>2470</v>
+        <v>8320</v>
       </c>
       <c r="S57">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>10</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D58" s="9">
-        <v>100</v>
+        <f>IFERROR(VLOOKUP(C58,Table2[#Data],2,FALSE),0) * IFERROR((1/B58),0)</f>
+        <v>0.5</v>
       </c>
       <c r="E58" s="8">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G58">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2">
-        <v>25</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D59" s="9">
-        <v>0.4</v>
+        <f>IFERROR(VLOOKUP(C59,Table2[#Data],2,FALSE),0) * IFERROR((1/B59),0)</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E59" s="8">
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2">
+        <v>35</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="9">
+        <f>IFERROR(VLOOKUP(C60,Table2[#Data],2,FALSE),0) * IFERROR((1/B60),0)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F60">
         <v>7</v>
-      </c>
-      <c r="B60" s="2">
-        <v>10</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="9">
-        <v>100</v>
-      </c>
-      <c r="E60" s="8">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>8</v>
       </c>
       <c r="G60">
         <v>19</v>
       </c>
-      <c r="I60" s="26" t="s">
-        <v>43</v>
+      <c r="I60" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
-      <c r="O60" s="26" t="s">
-        <v>43</v>
+      <c r="O60" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="P60" s="27"/>
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
     </row>
-    <row r="61" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
+        <v>19</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="2">
-        <v>25</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="D61" s="9">
-        <v>8</v>
+        <f>IFERROR(VLOOKUP(C61,Table2[#Data],2,FALSE),0) * IFERROR((1/B61),0)</f>
+        <v>0.5</v>
       </c>
       <c r="E61" s="8">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="F61">
         <v>8</v>
@@ -4305,7 +4533,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I62">
         <v>20200</v>
       </c>
@@ -4322,27 +4550,27 @@
         <v>20200</v>
       </c>
       <c r="O62">
-        <v>4790</v>
+        <v>16250</v>
       </c>
       <c r="P62">
-        <v>4790</v>
+        <v>16250</v>
       </c>
       <c r="Q62">
-        <v>4790</v>
+        <v>16250</v>
       </c>
       <c r="R62">
-        <v>4790</v>
+        <v>16250</v>
       </c>
       <c r="S62">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A63" s="30" t="s">
-        <v>34</v>
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="B63" s="27"/>
-      <c r="C63" s="29"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="27"/>
       <c r="I63" s="20">
         <v>126</v>
@@ -4375,15 +4603,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="I64">
         <v>20200</v>
@@ -4401,29 +4629,31 @@
         <v>20200</v>
       </c>
       <c r="O64">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="P64">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="Q64">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="R64">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="S64">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65">
+        <f t="shared" ref="B65:B72" si="4">SUMIF(F$42:F$61, A65, B$42:B$61)</f>
         <v>40</v>
       </c>
       <c r="C65" s="12">
+        <f t="shared" ref="C65:C72" si="5">40-B65</f>
         <v>0</v>
       </c>
       <c r="I65" s="20">
@@ -4457,15 +4687,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="C66" s="12">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>20200</v>
@@ -4483,29 +4715,31 @@
         <v>20200</v>
       </c>
       <c r="O66">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="P66">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="Q66">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="R66">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="S66">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C67" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I67" s="20">
@@ -4539,15 +4773,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
       <c r="B68">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="C68" s="12">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>20200</v>
@@ -4565,30 +4801,32 @@
         <v>20200</v>
       </c>
       <c r="O68">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="P68">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="Q68">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="R68">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="S68">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
       <c r="B69">
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="C69" s="12">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I69" s="20">
         <v>141</v>
@@ -4621,15 +4859,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
       <c r="B70">
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="C70" s="12">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="I70">
         <v>20200</v>
@@ -4647,29 +4887,31 @@
         <v>20200</v>
       </c>
       <c r="O70">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="P70">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="Q70">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="R70">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="S70">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
       <c r="B71">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C71" s="12">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I71" s="20">
@@ -4703,15 +4945,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
       <c r="B72">
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="C72" s="12">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="I72">
         <v>20200</v>
@@ -4729,22 +4973,23 @@
         <v>20200</v>
       </c>
       <c r="O72">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="P72">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="Q72">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="R72">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="S72">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C73" s="12"/>
       <c r="I73" s="20">
         <v>151</v>
       </c>
@@ -4776,24 +5021,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I74">
         <v>20200</v>
@@ -4811,39 +5056,41 @@
         <v>20200</v>
       </c>
       <c r="O74">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="P74">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="Q74">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="R74">
-        <v>5790</v>
+        <v>16250</v>
       </c>
       <c r="S74">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>8</v>
       </c>
       <c r="B75" s="11">
-        <v>308</v>
+        <f>SUM(B65:B73)</f>
+        <v>288</v>
       </c>
       <c r="C75" s="11">
-        <v>12</v>
+        <f>SUM(C65:C73)</f>
+        <v>32</v>
       </c>
       <c r="D75" s="17">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="E75" s="18">
-        <v>6755880</v>
+        <v>16047330</v>
       </c>
       <c r="F75" s="18">
-        <v>6595880</v>
+        <v>15887330</v>
       </c>
       <c r="I75" s="20">
         <v>156</v>
@@ -4876,7 +5123,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F76" s="19"/>
       <c r="I76">
         <v>20400</v>
       </c>
@@ -4893,38 +5141,55 @@
         <v>20410</v>
       </c>
       <c r="O76">
-        <v>5790</v>
+        <v>16450</v>
       </c>
       <c r="P76">
-        <v>5790</v>
+        <v>16450</v>
       </c>
       <c r="Q76">
-        <v>5790</v>
+        <v>16460</v>
       </c>
       <c r="R76">
-        <v>5790</v>
+        <v>16460</v>
       </c>
       <c r="S76">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="I79" s="26" t="s">
-        <v>44</v>
+        <v>17460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C78" s="18">
+        <v>10802800</v>
+      </c>
+      <c r="E78" s="19">
+        <f>E75+C78</f>
+        <v>26850130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I79" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
       <c r="M79" s="27"/>
-      <c r="O79" s="26" t="s">
-        <v>44</v>
+      <c r="O79" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="P79" s="27"/>
       <c r="Q79" s="27"/>
       <c r="R79" s="27"/>
       <c r="S79" s="27"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I80" s="20">
         <v>161</v>
       </c>
@@ -4956,7 +5221,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="81" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>40610</v>
       </c>
@@ -4973,22 +5238,22 @@
         <v>40610</v>
       </c>
       <c r="O81">
-        <v>10780</v>
+        <v>33710</v>
       </c>
       <c r="P81">
-        <v>10780</v>
+        <v>33710</v>
       </c>
       <c r="Q81">
-        <v>10830</v>
+        <v>33710</v>
       </c>
       <c r="R81">
-        <v>10830</v>
+        <v>33710</v>
       </c>
       <c r="S81">
-        <v>10880</v>
-      </c>
-    </row>
-    <row r="82" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33710</v>
+      </c>
+    </row>
+    <row r="82" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I82" s="20">
         <v>166</v>
       </c>
@@ -5020,39 +5285,39 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="83" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I83">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="J83">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="K83">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="L83">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="M83">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="O83">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="P83">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="Q83">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="R83">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="S83">
-        <v>10880</v>
-      </c>
-    </row>
-    <row r="84" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33710</v>
+      </c>
+    </row>
+    <row r="84" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I84" s="20">
         <v>171</v>
       </c>
@@ -5084,39 +5349,39 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="85" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I85">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="J85">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="K85">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="L85">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="M85">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="O85">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="P85">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="Q85">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="R85">
-        <v>10880</v>
+        <v>33710</v>
       </c>
       <c r="S85">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="86" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33710</v>
+      </c>
+    </row>
+    <row r="86" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I86" s="20">
         <v>176</v>
       </c>
@@ -5148,39 +5413,39 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="87" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I87">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="J87">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="K87">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="L87">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="M87">
-        <v>40620</v>
+        <v>40610</v>
       </c>
       <c r="O87">
-        <v>11080</v>
+        <v>33710</v>
       </c>
       <c r="P87">
-        <v>11080</v>
+        <v>33710</v>
       </c>
       <c r="Q87">
-        <v>11080</v>
+        <v>33710</v>
       </c>
       <c r="R87">
-        <v>11080</v>
+        <v>33710</v>
       </c>
       <c r="S87">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="88" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33710</v>
+      </c>
+    </row>
+    <row r="88" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I88" s="20">
         <v>181</v>
       </c>
@@ -5212,39 +5477,39 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="89" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I89">
-        <v>40620</v>
+        <v>40660</v>
       </c>
       <c r="J89">
-        <v>40620</v>
+        <v>40660</v>
       </c>
       <c r="K89">
-        <v>40620</v>
+        <v>40660</v>
       </c>
       <c r="L89">
-        <v>40620</v>
+        <v>40660</v>
       </c>
       <c r="M89">
-        <v>40620</v>
+        <v>40660</v>
       </c>
       <c r="O89">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="P89">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="Q89">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="R89">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="S89">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="90" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33760</v>
+      </c>
+    </row>
+    <row r="90" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I90" s="20">
         <v>186</v>
       </c>
@@ -5276,39 +5541,39 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="91" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I91">
-        <v>40620</v>
+        <v>40670</v>
       </c>
       <c r="J91">
-        <v>40620</v>
+        <v>40670</v>
       </c>
       <c r="K91">
-        <v>40620</v>
+        <v>40670</v>
       </c>
       <c r="L91">
-        <v>40620</v>
+        <v>40670</v>
       </c>
       <c r="M91">
-        <v>40620</v>
+        <v>40670</v>
       </c>
       <c r="O91">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="P91">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="Q91">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="R91">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="S91">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="92" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33760</v>
+      </c>
+    </row>
+    <row r="92" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I92" s="20">
         <v>191</v>
       </c>
@@ -5340,7 +5605,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="93" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I93">
         <v>40670</v>
       </c>
@@ -5357,22 +5622,22 @@
         <v>40670</v>
       </c>
       <c r="O93">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="P93">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="Q93">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="R93">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="S93">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="94" spans="9:19" x14ac:dyDescent="0.45">
+        <v>33760</v>
+      </c>
+    </row>
+    <row r="94" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I94" s="20">
         <v>196</v>
       </c>
@@ -5404,7 +5669,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="95" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I95">
         <v>40670</v>
       </c>
@@ -5421,38 +5686,38 @@
         <v>40670</v>
       </c>
       <c r="O95">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="P95">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="Q95">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="R95">
-        <v>11080</v>
+        <v>33760</v>
       </c>
       <c r="S95">
-        <v>11130</v>
-      </c>
-    </row>
-    <row r="98" spans="9:19" x14ac:dyDescent="0.45">
-      <c r="I98" s="26" t="s">
-        <v>45</v>
+        <v>33760</v>
+      </c>
+    </row>
+    <row r="98" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I98" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
       <c r="L98" s="27"/>
       <c r="M98" s="27"/>
-      <c r="O98" s="26" t="s">
-        <v>45</v>
+      <c r="O98" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="P98" s="27"/>
       <c r="Q98" s="27"/>
       <c r="R98" s="27"/>
       <c r="S98" s="27"/>
     </row>
-    <row r="99" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="99" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I99" s="20">
         <v>201</v>
       </c>
@@ -5484,7 +5749,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="100" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I100">
         <v>81280</v>
       </c>
@@ -5501,22 +5766,22 @@
         <v>81280</v>
       </c>
       <c r="O100">
-        <v>21910</v>
+        <v>67480</v>
       </c>
       <c r="P100">
-        <v>21910</v>
+        <v>67480</v>
       </c>
       <c r="Q100">
-        <v>22910</v>
+        <v>67480</v>
       </c>
       <c r="R100">
-        <v>22910</v>
+        <v>67480</v>
       </c>
       <c r="S100">
-        <v>22920</v>
-      </c>
-    </row>
-    <row r="101" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="101" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I101" s="20">
         <v>206</v>
       </c>
@@ -5548,7 +5813,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="102" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I102">
         <v>81280</v>
       </c>
@@ -5565,22 +5830,22 @@
         <v>81280</v>
       </c>
       <c r="O102">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="P102">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="Q102">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="R102">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="S102">
-        <v>22920</v>
-      </c>
-    </row>
-    <row r="103" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="103" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I103" s="20">
         <v>211</v>
       </c>
@@ -5612,7 +5877,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="104" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I104">
         <v>81280</v>
       </c>
@@ -5629,22 +5894,22 @@
         <v>81280</v>
       </c>
       <c r="O104">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="P104">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="Q104">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="R104">
-        <v>22920</v>
+        <v>67480</v>
       </c>
       <c r="S104">
-        <v>22930</v>
-      </c>
-    </row>
-    <row r="105" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="105" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I105" s="20">
         <v>216</v>
       </c>
@@ -5676,7 +5941,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="106" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I106">
         <v>81280</v>
       </c>
@@ -5693,22 +5958,22 @@
         <v>81280</v>
       </c>
       <c r="O106">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="P106">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="Q106">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="R106">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="S106">
-        <v>22930</v>
-      </c>
-    </row>
-    <row r="107" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="107" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I107" s="20">
         <v>221</v>
       </c>
@@ -5740,7 +6005,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="108" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I108">
         <v>81280</v>
       </c>
@@ -5757,22 +6022,22 @@
         <v>81280</v>
       </c>
       <c r="O108">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="P108">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="Q108">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="R108">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="S108">
-        <v>22930</v>
-      </c>
-    </row>
-    <row r="109" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="109" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I109" s="20">
         <v>226</v>
       </c>
@@ -5804,7 +6069,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="110" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I110">
         <v>81280</v>
       </c>
@@ -5821,22 +6086,22 @@
         <v>81280</v>
       </c>
       <c r="O110">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="P110">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="Q110">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="R110">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="S110">
-        <v>22930</v>
-      </c>
-    </row>
-    <row r="111" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="111" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I111" s="20">
         <v>231</v>
       </c>
@@ -5868,7 +6133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="112" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I112">
         <v>81280</v>
       </c>
@@ -5885,22 +6150,22 @@
         <v>81280</v>
       </c>
       <c r="O112">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="P112">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="Q112">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="R112">
-        <v>22930</v>
+        <v>67480</v>
       </c>
       <c r="S112">
-        <v>22930</v>
-      </c>
-    </row>
-    <row r="113" spans="9:19" x14ac:dyDescent="0.45">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="113" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I113" s="20">
         <v>236</v>
       </c>
@@ -5932,7 +6197,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="114" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I114">
         <v>81330</v>
       </c>
@@ -5949,38 +6214,38 @@
         <v>81330</v>
       </c>
       <c r="O114">
-        <v>22930</v>
+        <v>67530</v>
       </c>
       <c r="P114">
-        <v>22930</v>
+        <v>67530</v>
       </c>
       <c r="Q114">
-        <v>22930</v>
+        <v>67530</v>
       </c>
       <c r="R114">
-        <v>22930</v>
+        <v>67530</v>
       </c>
       <c r="S114">
-        <v>22940</v>
-      </c>
-    </row>
-    <row r="117" spans="9:19" x14ac:dyDescent="0.45">
-      <c r="I117" s="26" t="s">
-        <v>46</v>
+        <v>67530</v>
+      </c>
+    </row>
+    <row r="117" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I117" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="J117" s="27"/>
       <c r="K117" s="27"/>
       <c r="L117" s="27"/>
       <c r="M117" s="27"/>
-      <c r="O117" s="26" t="s">
-        <v>46</v>
+      <c r="O117" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="P117" s="27"/>
       <c r="Q117" s="27"/>
       <c r="R117" s="27"/>
       <c r="S117" s="27"/>
     </row>
-    <row r="118" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="118" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I118" s="20">
         <v>241</v>
       </c>
@@ -6012,7 +6277,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="119" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I119">
         <v>162610</v>
       </c>
@@ -6029,22 +6294,22 @@
         <v>162610</v>
       </c>
       <c r="O119">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="P119">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="Q119">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="R119">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="S119">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="120" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="120" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I120" s="20">
         <v>246</v>
       </c>
@@ -6076,7 +6341,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="121" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I121">
         <v>162610</v>
       </c>
@@ -6093,22 +6358,22 @@
         <v>162610</v>
       </c>
       <c r="O121">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="P121">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="Q121">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="R121">
-        <v>44850</v>
+        <v>135010</v>
       </c>
       <c r="S121">
-        <v>44850</v>
-      </c>
-    </row>
-    <row r="122" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="122" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I122" s="20">
         <v>251</v>
       </c>
@@ -6140,7 +6405,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="123" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I123">
         <v>162610</v>
       </c>
@@ -6157,22 +6422,22 @@
         <v>162610</v>
       </c>
       <c r="O123">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="P123">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="Q123">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="R123">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="S123">
-        <v>45850</v>
-      </c>
-    </row>
-    <row r="124" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="124" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I124" s="20">
         <v>256</v>
       </c>
@@ -6204,7 +6469,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="125" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I125">
         <v>162610</v>
       </c>
@@ -6221,22 +6486,22 @@
         <v>162610</v>
       </c>
       <c r="O125">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="P125">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="Q125">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="R125">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="S125">
-        <v>45850</v>
-      </c>
-    </row>
-    <row r="126" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="126" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I126" s="20">
         <v>261</v>
       </c>
@@ -6268,7 +6533,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="127" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I127">
         <v>162610</v>
       </c>
@@ -6285,22 +6550,22 @@
         <v>162610</v>
       </c>
       <c r="O127">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="P127">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="Q127">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="R127">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="S127">
-        <v>45850</v>
-      </c>
-    </row>
-    <row r="128" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="128" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I128" s="20">
         <v>266</v>
       </c>
@@ -6332,7 +6597,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="129" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I129">
         <v>162610</v>
       </c>
@@ -6349,22 +6614,22 @@
         <v>162610</v>
       </c>
       <c r="O129">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="P129">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="Q129">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="R129">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="S129">
-        <v>45850</v>
-      </c>
-    </row>
-    <row r="130" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="130" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I130" s="20">
         <v>271</v>
       </c>
@@ -6396,7 +6661,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="131" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I131">
         <v>162610</v>
       </c>
@@ -6413,22 +6678,22 @@
         <v>162610</v>
       </c>
       <c r="O131">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="P131">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="Q131">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="R131">
-        <v>45850</v>
+        <v>135010</v>
       </c>
       <c r="S131">
-        <v>45850</v>
-      </c>
-    </row>
-    <row r="132" spans="9:19" x14ac:dyDescent="0.45">
+        <v>135010</v>
+      </c>
+    </row>
+    <row r="132" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I132" s="20">
         <v>276</v>
       </c>
@@ -6460,7 +6725,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="133" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I133">
         <v>162660</v>
       </c>
@@ -6477,38 +6742,38 @@
         <v>162660</v>
       </c>
       <c r="O133">
-        <v>45860</v>
+        <v>135060</v>
       </c>
       <c r="P133">
-        <v>45860</v>
+        <v>135060</v>
       </c>
       <c r="Q133">
-        <v>45860</v>
+        <v>135060</v>
       </c>
       <c r="R133">
-        <v>45860</v>
+        <v>135060</v>
       </c>
       <c r="S133">
-        <v>45860</v>
-      </c>
-    </row>
-    <row r="136" spans="9:19" x14ac:dyDescent="0.45">
-      <c r="I136" s="26" t="s">
-        <v>47</v>
+        <v>135060</v>
+      </c>
+    </row>
+    <row r="136" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I136" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="J136" s="27"/>
       <c r="K136" s="27"/>
       <c r="L136" s="27"/>
       <c r="M136" s="27"/>
-      <c r="O136" s="26" t="s">
-        <v>47</v>
+      <c r="O136" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="P136" s="27"/>
       <c r="Q136" s="27"/>
       <c r="R136" s="27"/>
       <c r="S136" s="27"/>
     </row>
-    <row r="137" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="137" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I137" s="20">
         <v>281</v>
       </c>
@@ -6540,7 +6805,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="138" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I138">
         <v>325270</v>
       </c>
@@ -6557,22 +6822,22 @@
         <v>325270</v>
       </c>
       <c r="O138">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="P138">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="Q138">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="R138">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="S138">
-        <v>90710</v>
-      </c>
-    </row>
-    <row r="139" spans="9:19" x14ac:dyDescent="0.45">
+        <v>270070</v>
+      </c>
+    </row>
+    <row r="139" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I139" s="20">
         <v>286</v>
       </c>
@@ -6604,7 +6869,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="140" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I140">
         <v>325270</v>
       </c>
@@ -6621,22 +6886,22 @@
         <v>325270</v>
       </c>
       <c r="O140">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="P140">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="Q140">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="R140">
-        <v>90710</v>
+        <v>270070</v>
       </c>
       <c r="S140">
-        <v>90710</v>
-      </c>
-    </row>
-    <row r="141" spans="9:19" x14ac:dyDescent="0.45">
+        <v>270070</v>
+      </c>
+    </row>
+    <row r="141" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I141" s="20">
         <v>291</v>
       </c>
@@ -6668,7 +6933,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="142" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="142" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I142">
         <v>325280</v>
       </c>
@@ -6685,22 +6950,22 @@
         <v>325280</v>
       </c>
       <c r="O142">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="P142">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="Q142">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="R142">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="S142">
-        <v>91710</v>
-      </c>
-    </row>
-    <row r="143" spans="9:19" x14ac:dyDescent="0.45">
+        <v>270070</v>
+      </c>
+    </row>
+    <row r="143" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I143" s="20">
         <v>296</v>
       </c>
@@ -6732,7 +6997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="144" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I144">
         <v>325280</v>
       </c>
@@ -6749,22 +7014,22 @@
         <v>325280</v>
       </c>
       <c r="O144">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="P144">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="Q144">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="R144">
-        <v>91710</v>
+        <v>270070</v>
       </c>
       <c r="S144">
-        <v>91710</v>
-      </c>
-    </row>
-    <row r="145" spans="9:19" x14ac:dyDescent="0.45">
+        <v>270070</v>
+      </c>
+    </row>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I145" s="20">
         <v>301</v>
       </c>
@@ -6780,23 +7045,8 @@
       <c r="M145" s="20">
         <v>305</v>
       </c>
-      <c r="O145" s="20">
-        <v>301</v>
-      </c>
-      <c r="P145" s="20">
-        <v>302</v>
-      </c>
-      <c r="Q145" s="20">
-        <v>303</v>
-      </c>
-      <c r="R145" s="20">
-        <v>304</v>
-      </c>
-      <c r="S145" s="20">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="146" spans="9:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I146">
         <v>325280</v>
       </c>
@@ -6812,23 +7062,8 @@
       <c r="M146">
         <v>325280</v>
       </c>
-      <c r="O146">
-        <v>91710</v>
-      </c>
-      <c r="P146">
-        <v>91710</v>
-      </c>
-      <c r="Q146">
-        <v>91710</v>
-      </c>
-      <c r="R146">
-        <v>91710</v>
-      </c>
-      <c r="S146">
-        <v>91710</v>
-      </c>
-    </row>
-    <row r="147" spans="9:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I147" s="20">
         <v>306</v>
       </c>
@@ -6844,23 +7079,8 @@
       <c r="M147" s="20">
         <v>310</v>
       </c>
-      <c r="O147" s="20">
-        <v>306</v>
-      </c>
-      <c r="P147" s="20">
-        <v>307</v>
-      </c>
-      <c r="Q147" s="20">
-        <v>308</v>
-      </c>
-      <c r="R147" s="20">
-        <v>309</v>
-      </c>
-      <c r="S147" s="20">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="148" spans="9:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I148">
         <v>325280</v>
       </c>
@@ -6876,23 +7096,8 @@
       <c r="M148">
         <v>325280</v>
       </c>
-      <c r="O148">
-        <v>91710</v>
-      </c>
-      <c r="P148">
-        <v>91710</v>
-      </c>
-      <c r="Q148">
-        <v>91710</v>
-      </c>
-      <c r="R148">
-        <v>91710</v>
-      </c>
-      <c r="S148">
-        <v>91710</v>
-      </c>
-    </row>
-    <row r="149" spans="9:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I149" s="20">
         <v>311</v>
       </c>
@@ -6908,55 +7113,25 @@
       <c r="M149" s="20">
         <v>315</v>
       </c>
-      <c r="O149" s="20">
-        <v>311</v>
-      </c>
-      <c r="P149" s="20">
-        <v>312</v>
-      </c>
-      <c r="Q149" s="20">
-        <v>313</v>
-      </c>
-      <c r="R149" s="20">
-        <v>314</v>
-      </c>
-      <c r="S149" s="20">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" spans="9:19" x14ac:dyDescent="0.45">
+    </row>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I150">
-        <v>325280</v>
+        <v>325290</v>
       </c>
       <c r="J150">
-        <v>325280</v>
+        <v>325290</v>
       </c>
       <c r="K150">
-        <v>325280</v>
+        <v>325290</v>
       </c>
       <c r="L150">
-        <v>325280</v>
+        <v>325290</v>
       </c>
       <c r="M150">
-        <v>325280</v>
-      </c>
-      <c r="O150">
-        <v>91710</v>
-      </c>
-      <c r="P150">
-        <v>91710</v>
-      </c>
-      <c r="Q150">
-        <v>91710</v>
-      </c>
-      <c r="R150">
-        <v>91710</v>
-      </c>
-      <c r="S150">
-        <v>91710</v>
-      </c>
-    </row>
-    <row r="151" spans="9:19" x14ac:dyDescent="0.45">
+        <v>325290</v>
+      </c>
+    </row>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I151" s="20">
         <v>316</v>
       </c>
@@ -6973,7 +7148,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="152" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I152">
         <v>325290</v>
       </c>
@@ -6990,16 +7165,16 @@
         <v>325290</v>
       </c>
     </row>
-    <row r="155" spans="9:19" x14ac:dyDescent="0.45">
-      <c r="I155" s="26" t="s">
-        <v>48</v>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I155" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="J155" s="27"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="27"/>
     </row>
-    <row r="156" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I156" s="20">
         <v>321</v>
       </c>
@@ -7016,7 +7191,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="157" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I157">
         <v>650560</v>
       </c>
@@ -7033,7 +7208,7 @@
         <v>650560</v>
       </c>
     </row>
-    <row r="158" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I158" s="20">
         <v>326</v>
       </c>
@@ -7050,7 +7225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I159">
         <v>650560</v>
       </c>
@@ -7067,7 +7242,7 @@
         <v>650560</v>
       </c>
     </row>
-    <row r="160" spans="9:19" x14ac:dyDescent="0.45">
+    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I160" s="20">
         <v>331</v>
       </c>
@@ -7084,7 +7259,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I161">
         <v>650560</v>
       </c>
@@ -7101,7 +7276,7 @@
         <v>650560</v>
       </c>
     </row>
-    <row r="162" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I162" s="20">
         <v>336</v>
       </c>
@@ -7118,7 +7293,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="163" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I163">
         <v>650560</v>
       </c>
@@ -7135,43 +7310,23 @@
         <v>650560</v>
       </c>
     </row>
-    <row r="164" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I164" s="20">
-        <v>341</v>
-      </c>
-      <c r="J164" s="20">
-        <v>342</v>
-      </c>
-      <c r="K164" s="20">
-        <v>343</v>
-      </c>
-      <c r="L164" s="20">
-        <v>344</v>
-      </c>
-      <c r="M164" s="20">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="165" spans="9:13" x14ac:dyDescent="0.45">
-      <c r="I165">
-        <v>650560</v>
-      </c>
-      <c r="J165">
-        <v>650560</v>
-      </c>
-      <c r="K165">
-        <v>650560</v>
-      </c>
-      <c r="L165">
-        <v>650560</v>
-      </c>
-      <c r="M165">
-        <v>650560</v>
-      </c>
+    <row r="164" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
+      <c r="M164" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="O98:S98"/>
+    <mergeCell ref="O117:S117"/>
+    <mergeCell ref="O136:S136"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="O79:S79"/>
     <mergeCell ref="I117:M117"/>
     <mergeCell ref="I136:M136"/>
     <mergeCell ref="I155:M155"/>
@@ -7181,21 +7336,15 @@
     <mergeCell ref="I60:M60"/>
     <mergeCell ref="I79:M79"/>
     <mergeCell ref="I98:M98"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="O98:S98"/>
-    <mergeCell ref="O117:S117"/>
-    <mergeCell ref="O136:S136"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="O60:S60"/>
-    <mergeCell ref="O79:S79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>